--- a/public/pyscript/output.xlsx
+++ b/public/pyscript/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,56 +450,63 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Puji Rahayu Ningsih, S.Pd., M.Pd.</t>
+          <t>Muhamad Afif Effindi, S.Kom., M.T.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Laili Cahyani, S.Kom., M.Kom</t>
+          <t>Laili Cahyani, S.Kom., M.Kom.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Muhamad Afif Effindi, S.Kom., M.T.</t>
+          <t>Prita Dellia, S.Kom., M.Kom</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Etistika Yuni Wijaya, S.Pd., M.Pd.</t>
+          <t>Nuru Aini, S.Kom., M.Kom.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nuru Aini, S.Kom., M.Kom.</t>
+          <t>Puji Rahayu Ningsih, S.Pd., M.Pd.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Prita Dellia, S.Kom., M.Kom</t>
+          <t>Muchamad Arif, S.Pd., M.Pd</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Muhlis Tahir, S.Pd., M.Tr.Kom</t>
+          <t>Sigit Dwi Saputro, S.Pd., M.Pd.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Muchamad Arif, S.Pd., M.Pd.</t>
+          <t>Etistika Yuni Wijaya, S.Pd., M.Pd.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Muhlis Tahir, S.Pd., M.Tr.Kom</t>
         </is>
       </c>
     </row>
